--- a/RESULTS/2018/B2 SET 6 [2.8..5.6] VIP=5/Cov Fit Single.xlsx
+++ b/RESULTS/2018/B2 SET 6 [2.8..5.6] VIP=5/Cov Fit Single.xlsx
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>17</v>
       </c>
       <c r="F1" s="1" t="n">
         <v>30</v>
@@ -1229,10 +1229,10 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
+        <v>0.9715412042515472</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.6854042142631881</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9715412042515472</v>
       </c>
       <c r="F2" t="n">
         <v>0.9647147743635598</v>
@@ -1252,10 +1252,10 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
+        <v>0.9180232507151763</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.5611891528086587</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9180232507151763</v>
       </c>
       <c r="F3" t="n">
         <v>0.8659503811327621</v>
@@ -1266,48 +1266,48 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0.7721631910893921</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.9497979102505976</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.8984362813051767</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9715412042515472</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9180232507151763</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="D5" t="n">
         <v>0.7721631910893921</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9497979102505976</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8984362813051767</v>
+        <v>0.5651793414145034</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1321,10 +1321,10 @@
         <v>0.8659503811327621</v>
       </c>
       <c r="D6" t="n">
+        <v>0.9497979102505976</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.7839818249638393</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9497979102505976</v>
       </c>
       <c r="F6" t="n">
         <v>0.9999999999999991</v>
@@ -1344,10 +1344,10 @@
         <v>0.9188405370792183</v>
       </c>
       <c r="D7" t="n">
+        <v>0.8984362813051767</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.5651793414145034</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8984362813051767</v>
       </c>
       <c r="F7" t="n">
         <v>0.7746182614176115</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>14</v>
       </c>
       <c r="F1" s="1" t="n">
         <v>30</v>
@@ -1403,10 +1403,10 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
+        <v>0.6590993355898472</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.2958259168869475</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.6590993355898472</v>
       </c>
       <c r="F2" t="n">
         <v>0.9647147743635598</v>
@@ -1423,10 +1423,10 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
+        <v>0.7098623230043076</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.2129359758219215</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7098623230043076</v>
       </c>
       <c r="F3" t="n">
         <v>0.8659503811327621</v>
@@ -1434,42 +1434,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="E4" t="n">
         <v>0.2331930244846713</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.5681088836017403</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="D5" t="n">
         <v>0.2331930244846713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.3874617546197744</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0.8659503811327621</v>
       </c>
       <c r="D6" t="n">
+        <v>0.5681088836017403</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.3874617546197744</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5681088836017403</v>
       </c>
       <c r="F6" t="n">
         <v>0.9999999999999991</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>34</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>0.9632363915993688</v>
       </c>
       <c r="D2" t="n">
+        <v>0.9647147743635603</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.520639009577996</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9647147743635603</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1553,24 +1553,24 @@
         <v>1.000000000000002</v>
       </c>
       <c r="D3" t="n">
+        <v>0.8659503811327626</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.4078597798256569</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8659503811327626</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.520639009577996</v>
+        <v>0.9647147743635603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4078597798256569</v>
+        <v>0.8659503811327626</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>0.6243486396460524</v>
@@ -1578,19 +1578,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9647147743635603</v>
+        <v>0.520639009577996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8659503811327626</v>
+        <v>0.4078597798256569</v>
       </c>
       <c r="D5" t="n">
         <v>0.6243486396460524</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="n">
         <v>35</v>
@@ -2480,7 +2480,7 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>39</v>
@@ -2506,10 +2506,10 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9253307748224663</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="F2" t="n">
         <v>0.3865897684483788</v>
@@ -2524,7 +2524,7 @@
         <v>0.2382965135528327</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="K2" t="n">
         <v>0.1776117517368401</v>
@@ -2550,10 +2550,10 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8116842143452301</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="F3" t="n">
         <v>0.2895383937668051</v>
@@ -2568,7 +2568,7 @@
         <v>0.1663181554402454</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="K3" t="n">
         <v>0.1194753585958128</v>
@@ -2585,90 +2585,90 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9253307748224663</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8116842143452301</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7419478001275565</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6110843556803041</v>
+        <v>0.763820843167942</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6861183976532476</v>
+        <v>0.6336436995171795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3339382225532271</v>
+        <v>0.4883374420577734</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4418929326908582</v>
+        <v>0.6048925114238638</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3935850393300677</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3592289712813291</v>
+        <v>0.5171324797171936</v>
       </c>
       <c r="L4" t="n">
-        <v>0.314680276011415</v>
+        <v>0.4656419335979814</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2995791459106895</v>
+        <v>0.4473288859414968</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2874474089824657</v>
+        <v>0.4322629509874649</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7419478001275565</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.9021079685708747</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4148087179732577</v>
+        <v>0.5334660419546353</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8092409683013462</v>
+        <v>0.6641710350127288</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9015811977009964</v>
+        <v>0.7758802120867304</v>
       </c>
       <c r="J5" t="n">
-        <v>0.865926691536365</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8353368705002284</v>
+        <v>0.6935283372040211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7868778240478195</v>
+        <v>0.6401036298897276</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7675799923406653</v>
+        <v>0.6200504642234429</v>
       </c>
       <c r="N5" t="n">
-        <v>0.750812138023653</v>
+        <v>0.6031118346431561</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2682,10 +2682,10 @@
         <v>0.2895383937668051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6110843556803041</v>
+        <v>0.763820843167942</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.9021079685708747</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         <v>0.9677703973004493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="K6" t="n">
         <v>0.9217678271661733</v>
@@ -2726,10 +2726,10 @@
         <v>0.8403451484005747</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6861183976532476</v>
+        <v>0.6336436995171795</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4148087179732577</v>
+        <v>0.5334660419546353</v>
       </c>
       <c r="F7" t="n">
         <v>0.315701341604083</v>
@@ -2744,7 +2744,7 @@
         <v>0.2045216357987829</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1767967984187028</v>
+        <v>0.2478141669223425</v>
       </c>
       <c r="K7" t="n">
         <v>0.1582989066267929</v>
@@ -2770,10 +2770,10 @@
         <v>0.1071701885175071</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3339382225532271</v>
+        <v>0.4883374420577734</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8092409683013462</v>
+        <v>0.6641710350127288</v>
       </c>
       <c r="F8" t="n">
         <v>0.9011223345684092</v>
@@ -2788,7 +2788,7 @@
         <v>0.9789047620517961</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.9520357754910049</v>
       </c>
       <c r="K8" t="n">
         <v>0.9984437465199915</v>
@@ -2814,10 +2814,10 @@
         <v>0.1663181554402454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4418929326908582</v>
+        <v>0.6048925114238638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9015811977009964</v>
+        <v>0.7758802120867304</v>
       </c>
       <c r="F9" t="n">
         <v>0.9677703973004493</v>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9964622257091272</v>
+        <v>0.9940494262005267</v>
       </c>
       <c r="K9" t="n">
         <v>0.9886095113648001</v>
@@ -2849,46 +2849,46 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3935850393300677</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="E10" t="n">
-        <v>0.865926691536365</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1767967984187028</v>
+        <v>0.2478141669223425</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.9520357754910049</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9964622257091272</v>
+        <v>0.9940494262005267</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9977251660949648</v>
+        <v>0.9669289432387536</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9376716919690321</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9782132552864342</v>
+        <v>0.924168606825436</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9705639699555703</v>
+        <v>0.9116453900451517</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2902,10 +2902,10 @@
         <v>0.1194753585958128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3592289712813291</v>
+        <v>0.5171324797171936</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8353368705002284</v>
+        <v>0.6935283372040211</v>
       </c>
       <c r="F11" t="n">
         <v>0.9217678271661733</v>
@@ -2920,7 +2920,7 @@
         <v>0.9886095113648001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9977251660949648</v>
+        <v>0.9669289432387536</v>
       </c>
       <c r="K11" t="n">
         <v>1.000000000000002</v>
@@ -2946,10 +2946,10 @@
         <v>0.09842763581575339</v>
       </c>
       <c r="D12" t="n">
-        <v>0.314680276011415</v>
+        <v>0.4656419335979814</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7868778240478195</v>
+        <v>0.6401036298897276</v>
       </c>
       <c r="F12" t="n">
         <v>0.8824893836074508</v>
@@ -2964,7 +2964,7 @@
         <v>0.9685705770485875</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9376716919690321</v>
       </c>
       <c r="K12" t="n">
         <v>0.9947192616169179</v>
@@ -2990,10 +2990,10 @@
         <v>0.09192060071858424</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2995791459106895</v>
+        <v>0.4473288859414968</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7675799923406653</v>
+        <v>0.6200504642234429</v>
       </c>
       <c r="F13" t="n">
         <v>0.8657697291794526</v>
@@ -3008,7 +3008,7 @@
         <v>0.958238194802042</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9782132552864342</v>
+        <v>0.924168606825436</v>
       </c>
       <c r="K13" t="n">
         <v>0.9897938570711513</v>
@@ -3034,10 +3034,10 @@
         <v>0.08688906367264276</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2874474089824657</v>
+        <v>0.4322629509874649</v>
       </c>
       <c r="E14" t="n">
-        <v>0.750812138023653</v>
+        <v>0.6031118346431561</v>
       </c>
       <c r="F14" t="n">
         <v>0.850791593370065</v>
@@ -3052,7 +3052,7 @@
         <v>0.9482381954295083</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9705639699555703</v>
+        <v>0.9116453900451517</v>
       </c>
       <c r="K14" t="n">
         <v>0.9842523533393581</v>
@@ -3094,16 +3094,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="G1" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>40</v>
@@ -3112,16 +3112,16 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>39</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3135,16 +3135,16 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9933212618181998</v>
+        <v>0.8333681331439881</v>
       </c>
       <c r="E2" t="n">
+        <v>0.685404214263188</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.3865897684483788</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.9647147743635598</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.7923450763691147</v>
       </c>
       <c r="H2" t="n">
         <v>0.1609860844460738</v>
@@ -3153,16 +3153,16 @@
         <v>0.2382965135528327</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="K2" t="n">
         <v>0.1776117517368401</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.5206390095779966</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3176,16 +3176,16 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9483459191545409</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="E3" t="n">
-        <v>0.289538393766805</v>
+        <v>0.5611891528086586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="G3" t="n">
-        <v>0.892628352092997</v>
+        <v>0.8403451484005747</v>
       </c>
       <c r="H3" t="n">
         <v>0.1071701885175071</v>
@@ -3194,180 +3194,180 @@
         <v>0.1663181554402454</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="K3" t="n">
         <v>0.1194753585958128</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.4078597798256571</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9933212618181998</v>
+        <v>0.8333681331439881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9483459191545409</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4359416840010828</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9643388531673249</v>
+        <v>0.763820843167942</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8705192154340031</v>
+        <v>0.6336436995171795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1963994605490239</v>
+        <v>0.4883374420577734</v>
       </c>
       <c r="I4" t="n">
-        <v>0.281060828845354</v>
+        <v>0.6048925114238638</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2415173466634291</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2149897881492324</v>
+        <v>0.5171324797171936</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1827980123334747</v>
+        <v>0.5546627622694325</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1724642360847758</v>
+        <v>0.8712925590442898</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.685404214263188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.289538393766805</v>
+        <v>0.5611891528086586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4359416840010828</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.9021079685708748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.5334660419546353</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.6641710350127288</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.7758802120867304</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9217678271661733</v>
+        <v>0.6935283372040211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8824893836074508</v>
+        <v>0.7299754418016589</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8657697291794526</v>
+        <v>0.9687875471945941</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9643388531673249</v>
+        <v>0.763820843167942</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.9021079685708748</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.315701341604083</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2280300057573118</v>
+        <v>0.9011223345684091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3220811261336202</v>
+        <v>0.9677703973004492</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2787360759562128</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2491087035642826</v>
+        <v>0.9217678271661733</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2124344047129022</v>
+        <v>0.9442798674991846</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2004947277347606</v>
+        <v>0.9802605839149038</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.7923450763691147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892628352092997</v>
+        <v>0.8403451484005747</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8705192154340031</v>
+        <v>0.6336436995171795</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.5334660419546353</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.315701341604083</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.141156093696003</v>
+        <v>0.1452766637659334</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2025806211328364</v>
+        <v>0.2045216357987829</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1736364586586464</v>
+        <v>0.2478141669223425</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1544987483393246</v>
+        <v>0.1582989066267929</v>
       </c>
       <c r="L7" t="n">
-        <v>0.131355346037709</v>
+        <v>0.1767967984187028</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1238252729292282</v>
+        <v>0.4148087179732577</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3381,16 +3381,16 @@
         <v>0.1071701885175071</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1963994605490239</v>
+        <v>0.4883374420577734</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.6641710350127288</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2280300057573118</v>
+        <v>0.9011223345684091</v>
       </c>
       <c r="G8" t="n">
-        <v>0.141156093696003</v>
+        <v>0.1452766637659334</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -3399,16 +3399,16 @@
         <v>0.9789047620517961</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.9520357754910048</v>
       </c>
       <c r="K8" t="n">
         <v>0.9984437465199915</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.9924502498932439</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.8092409683013462</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3422,16 +3422,16 @@
         <v>0.1663181554402454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.281060828845354</v>
+        <v>0.6048925114238638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.7758802120867304</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3220811261336202</v>
+        <v>0.9677703973004492</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2025806211328364</v>
+        <v>0.2045216357987829</v>
       </c>
       <c r="H9" t="n">
         <v>0.9789047620517961</v>
@@ -3440,57 +3440,57 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9964622257091275</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="K9" t="n">
         <v>0.9886095113648001</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9685705770485875</v>
+        <v>0.9964622257091275</v>
       </c>
       <c r="M9" t="n">
-        <v>0.958238194802042</v>
+        <v>0.9015811977009964</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2415173466634291</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2787360759562128</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1736364586586464</v>
+        <v>0.2478141669223425</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.9520357754910048</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9964622257091275</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.9669289432387536</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9815552464906571</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9782132552864343</v>
+        <v>0.9415491058899725</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3504,16 +3504,16 @@
         <v>0.1194753585958128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2149897881492324</v>
+        <v>0.5171324797171936</v>
       </c>
       <c r="E11" t="n">
+        <v>0.6935283372040211</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.9217678271661733</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.2491087035642826</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.1544987483393246</v>
+        <v>0.1582989066267929</v>
       </c>
       <c r="H11" t="n">
         <v>0.9984437465199915</v>
@@ -3522,95 +3522,95 @@
         <v>0.9886095113648001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.9669289432387536</v>
       </c>
       <c r="K11" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9947192616169178</v>
+        <v>0.9977251660949651</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9897938570711512</v>
+        <v>0.8353368705002285</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1827980123334747</v>
+        <v>0.5546627622694325</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8824893836074508</v>
+        <v>0.7299754418016589</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2124344047129022</v>
+        <v>0.9442798674991846</v>
       </c>
       <c r="G12" t="n">
-        <v>0.131355346037709</v>
+        <v>0.1767967984187028</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.9924502498932439</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9685705770485875</v>
+        <v>0.9964622257091275</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9815552464906571</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9947192616169178</v>
+        <v>0.9977251660949651</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9991766142734289</v>
+        <v>0.8659266915363651</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1724642360847758</v>
+        <v>0.8712925590442898</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8657697291794526</v>
+        <v>0.9687875471945941</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2004947277347606</v>
+        <v>0.9802605839149038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1238252729292282</v>
+        <v>0.4148087179732577</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.8092409683013462</v>
       </c>
       <c r="I13" t="n">
-        <v>0.958238194802042</v>
+        <v>0.9015811977009964</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9782132552864343</v>
+        <v>0.9415491058899725</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9897938570711512</v>
+        <v>0.8353368705002285</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9991766142734289</v>
+        <v>0.8659266915363651</v>
       </c>
       <c r="M13" t="n">
         <v>1.000000000000001</v>
@@ -3643,31 +3643,31 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>38</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3681,31 +3681,31 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6696211750227676</v>
+        <v>0.9933212618181998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="F2" t="n">
+        <v>0.3865897684483788</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8737306524408875</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9647147743635598</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.8464003326674895</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>0.2382965135528327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2958259168869475</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.1609860844460738</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.6031204457537479</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.2017130872970727</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1399670675128551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1489841062502842</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3719,373 +3719,373 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5980392574573217</v>
+        <v>0.9483459191545409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="F3" t="n">
+        <v>0.2895383937668051</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9188405370792183</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8659503811327621</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.892628352092997</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>0.1663181554402454</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2129359758219215</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.1071701885175071</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.5342022019651212</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.1377363050044424</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.09192060071858424</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.09842763581575339</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6696211750227676</v>
+        <v>0.9933212618181998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5980392574573217</v>
+        <v>0.9483459191545409</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7690705379875391</v>
+        <v>0.5709743899761875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6738670404055415</v>
+        <v>0.4359416840010828</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7049439082052633</v>
+        <v>0.8932861595488431</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4159628639194542</v>
+        <v>0.9643388531673249</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9943249029137562</v>
+        <v>0.281060828845354</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4672097141520237</v>
+        <v>0.3419916162851993</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3840608068114961</v>
+        <v>0.1963994605490239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3983453508324816</v>
+        <v>0.2415173466634291</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7690705379875391</v>
+        <v>0.5709743899761875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.9802605839149038</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5558926012537588</v>
+        <v>0.4304843041025677</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6641710350127288</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7300625970111919</v>
+        <v>0.9015811977009964</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7299754418016589</v>
+        <v>0.9415491058899723</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6200504642234429</v>
+        <v>0.8092409683013462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6401036298897276</v>
+        <v>0.865926691536365</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6738670404055415</v>
+        <v>0.4359416840010828</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.9802605839149038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.3206466404120449</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2280300057573118</v>
+        <v>0.4860159163130413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6080253075392458</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2787360759562128</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2004947277347606</v>
+        <v>0.9011223345684092</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2124344047129022</v>
+        <v>0.9442798674991846</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892628352092997</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7049439082052633</v>
+        <v>0.8932861595488431</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5558926012537588</v>
+        <v>0.4304843041025677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.3206466404120449</v>
       </c>
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.141156093696003</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6511595821400967</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1736364586586464</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1238252729292282</v>
+        <v>0.1378996029960749</v>
       </c>
       <c r="L7" t="n">
-        <v>0.131355346037709</v>
+        <v>0.1706764226479466</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.9647147743635598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4159628639194542</v>
+        <v>0.9643388531673249</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6641710350127288</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2280300057573118</v>
+        <v>0.4860159163130413</v>
       </c>
       <c r="G8" t="n">
-        <v>0.141156093696003</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4242868862772166</v>
+        <v>0.3220811261336203</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.2280300057573117</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.2787360759562128</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6031204457537479</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5342022019651212</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9943249029137562</v>
+        <v>0.281060828845354</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7300625970111919</v>
+        <v>0.9015811977009964</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6080253075392458</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6511595821400967</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4242868862772166</v>
+        <v>0.3220811261336203</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4722393804015876</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3938716898540338</v>
+        <v>0.9789047620517961</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4075479406802537</v>
+        <v>0.9964622257091275</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4672097141520237</v>
+        <v>0.3419916162851993</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7299754418016589</v>
+        <v>0.9415491058899723</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2787360759562128</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1736364586586464</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4722393804015876</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9782132552864343</v>
+        <v>0.9520357754910049</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9815552464906571</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.1609860844460738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.1071701885175071</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3840608068114961</v>
+        <v>0.1963994605490239</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6200504642234429</v>
+        <v>0.8092409683013462</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2004947277347606</v>
+        <v>0.9011223345684092</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1238252729292282</v>
+        <v>0.1378996029960749</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.2280300057573117</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3938716898540338</v>
+        <v>0.9789047620517961</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9782132552864343</v>
+        <v>0.9520357754910049</v>
       </c>
       <c r="K11" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9991766142734289</v>
+        <v>0.9924502498932439</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3983453508324816</v>
+        <v>0.2415173466634291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6401036298897276</v>
+        <v>0.865926691536365</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2124344047129022</v>
+        <v>0.9442798674991846</v>
       </c>
       <c r="G12" t="n">
-        <v>0.131355346037709</v>
+        <v>0.1706764226479466</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4075479406802537</v>
+        <v>0.9964622257091275</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9815552464906571</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9991766142734289</v>
+        <v>0.9924502498932439</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.9999999999999984</v>
       </c>
     </row>
   </sheetData>
@@ -4115,28 +4115,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>37</v>
-      </c>
       <c r="K1" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4150,28 +4150,28 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6696211750227676</v>
+        <v>0.9933212618181999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="F2" t="n">
+        <v>0.3865897684483788</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8737306524408875</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9647147743635598</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.8464003326674895</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>0.2382965135528327</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.2958259168869475</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.6031204457537479</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2382965135528327</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.8333681331439882</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4185,308 +4185,308 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5980392574573217</v>
+        <v>0.9483459191545407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="F3" t="n">
+        <v>0.2895383937668051</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9188405370792183</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8659503811327621</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.892628352092997</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>0.1663181554402454</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.2129359758219215</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.5342022019651212</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1663181554402454</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.7090385504210664</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6696211750227676</v>
+        <v>0.9933212618181999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5980392574573217</v>
+        <v>0.9483459191545407</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7064041485511515</v>
+        <v>0.731030936297938</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6738670404055415</v>
+        <v>0.4359416840010828</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7049439082052632</v>
+        <v>0.8932861595488433</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5583380184206334</v>
+        <v>0.9643388531673249</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9943249029137562</v>
+        <v>0.281060828845354</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5059247740178102</v>
+        <v>0.3419916162851993</v>
       </c>
       <c r="K4" t="n">
-        <v>0.627214673782671</v>
+        <v>0.8666837512467015</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7064041485511515</v>
+        <v>0.731030936297938</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.9021079685708747</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4266134121800872</v>
+        <v>0.5651793414145034</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6828190986518571</v>
+        <v>0.7758802120867304</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9015811977009964</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.9646528335593058</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6738670404055415</v>
+        <v>0.4359416840010828</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.9021079685708747</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.3206466404120449</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6080253075392458</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3220811261336203</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.763820843167942</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892628352092997</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7049439082052632</v>
+        <v>0.8932861595488433</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4266134121800872</v>
+        <v>0.5651793414145034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.3206466404120449</v>
       </c>
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2481617854499422</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6511595821400967</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2025806211328364</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.6838665427032969</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.9647147743635598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5583380184206334</v>
+        <v>0.9643388531673249</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="F8" t="n">
+        <v>0.4860159163130412</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7746182614176115</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3220811261336202</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.3874617546197744</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.2481617854499422</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.5551562335754027</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9940494262005267</v>
-      </c>
       <c r="K8" t="n">
-        <v>0.9892170325671799</v>
+        <v>0.9145461311393663</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6031204457537479</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5342022019651212</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9943249029137562</v>
+        <v>0.281060828845354</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6828190986518571</v>
+        <v>0.7758802120867304</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6080253075392458</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6511595821400967</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5551562335754027</v>
+        <v>0.3220811261336202</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5078129172957191</v>
+        <v>0.9940494262005267</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6158845033327298</v>
+        <v>0.6048925114238637</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5059247740178102</v>
+        <v>0.3419916162851993</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9015811977009964</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3220811261336203</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2025806211328364</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="H10" t="n">
+        <v>0.3874617546197744</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.9940494262005267</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.5078129172957191</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9677703973004492</v>
+        <v>0.6731407481616736</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.627214673782671</v>
+        <v>0.8666837512467015</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.763820843167942</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.6838665427032969</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9892170325671799</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6158845033327298</v>
+        <v>0.6048925114238637</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9677703973004492</v>
+        <v>0.6731407481616736</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
   </sheetData>
@@ -4516,25 +4516,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>35</v>
-      </c>
       <c r="I1" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4548,25 +4548,25 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6696211750227676</v>
+        <v>0.3801173003970791</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.1776117517368401</v>
       </c>
       <c r="F2" t="n">
+        <v>0.2017130872970727</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8737306524408875</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9647147743635598</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.8464003326674895</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3865897684483788</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.6031204457537479</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8333681331439882</v>
+        <v>0.2382965135528327</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4580,249 +4580,249 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5980392574573217</v>
+        <v>0.3308753967281376</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.1194753585958128</v>
       </c>
       <c r="F3" t="n">
+        <v>0.1377363050044424</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9188405370792183</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8659503811327621</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.892628352092997</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.2895383937668051</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.5342022019651212</v>
+        <v>0.8716833685607682</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7090385504210664</v>
+        <v>0.1663181554402454</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6696211750227676</v>
+        <v>0.3801173003970791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5980392574573217</v>
+        <v>0.3308753967281376</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999989</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7064041485511515</v>
+        <v>0.3875770043338153</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6738670404055415</v>
+        <v>0.4047042886721033</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7049439082052633</v>
+        <v>0.4410057215923135</v>
       </c>
       <c r="H4" t="n">
-        <v>0.627214673782671</v>
+        <v>0.3783333913900662</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9943249029137562</v>
+        <v>0.6004195721895985</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7799999734093843</v>
+        <v>0.4264785241417594</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.1776117517368401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.1194753585958128</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7064041485511515</v>
+        <v>0.3875770043338153</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.9977251660949651</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4266134121800872</v>
+        <v>0.1513228821885325</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.2491087035642826</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6828190986518571</v>
+        <v>0.3058774640615416</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8712925590442898</v>
+        <v>0.9886095113648001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6738670404055415</v>
+        <v>0.4047042886721033</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.9977251660949651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7480116584051613</v>
+        <v>0.1706764226479466</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6080253075392458</v>
+        <v>0.3363900861747871</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9145461311393663</v>
+        <v>0.9964622257091275</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892628352092997</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7049439082052633</v>
+        <v>0.4410057215923135</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4266134121800872</v>
+        <v>0.1513228821885325</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7480116584051613</v>
+        <v>0.1706764226479466</v>
       </c>
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6511595821400967</v>
+        <v>0.8862644658988938</v>
       </c>
       <c r="J7" t="n">
-        <v>0.668063166949042</v>
+        <v>0.200093059220486</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9647147743635598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.627214673782671</v>
+        <v>0.3783333913900662</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.2491087035642826</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6158845033327298</v>
+        <v>0.9188561297474036</v>
       </c>
       <c r="J8" t="n">
-        <v>0.763820843167942</v>
+        <v>0.3220811261336202</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6031204457537479</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5342022019651212</v>
+        <v>0.8716833685607682</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9943249029137562</v>
+        <v>0.6004195721895985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6828190986518571</v>
+        <v>0.3058774640615416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6080253075392458</v>
+        <v>0.3363900861747871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6511595821400967</v>
+        <v>0.8862644658988938</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6158845033327298</v>
+        <v>0.9188561297474036</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7267551568463669</v>
+        <v>0.3801335224260193</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8333681331439882</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7090385504210664</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7799999734093843</v>
+        <v>0.4264785241417594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8712925590442898</v>
+        <v>0.9886095113648001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9145461311393663</v>
+        <v>0.9964622257091275</v>
       </c>
       <c r="G10" t="n">
-        <v>0.668063166949042</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="H10" t="n">
-        <v>0.763820843167942</v>
+        <v>0.3220811261336202</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7267551568463669</v>
+        <v>0.3801335224260193</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999986</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4852,22 +4852,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>35</v>
-      </c>
       <c r="I1" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4881,22 +4881,22 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.603120445753748</v>
+        <v>0.4488179478535682</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="F2" t="n">
+        <v>0.2382965135528327</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8737306524408875</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9647147743635598</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.8464003326674895</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3865897684483788</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.878896552082704</v>
+        <v>0.9331053480012905</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4910,196 +4910,196 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5342022019651212</v>
+        <v>0.3917462533959553</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="F3" t="n">
+        <v>0.1663181554402454</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9188405370792183</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8659503811327621</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.892628352092997</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.2895383937668051</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.8112522023724603</v>
+        <v>0.8716833685607682</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>0.603120445753748</v>
+        <v>0.4488179478535682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5342022019651212</v>
+        <v>0.3917462533959553</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5551562335754027</v>
+        <v>0.5843902270548854</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6080253075392458</v>
+        <v>0.4690558178453269</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6511595821400967</v>
+        <v>0.5046272579644797</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6158845033327298</v>
+        <v>0.4506209732569184</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8859098278555816</v>
+        <v>0.6750582962482081</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5551562335754027</v>
+        <v>0.5843902270548854</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.9015811977009964</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2481617854499422</v>
+        <v>0.4304843041025677</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4911684441091116</v>
+        <v>0.6661587929403029</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6080253075392458</v>
+        <v>0.4690558178453269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.9015811977009964</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4860159163130413</v>
+        <v>0.3220811261336202</v>
       </c>
       <c r="I6" t="n">
-        <v>0.871560768551956</v>
+        <v>0.3801335224260193</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892628352092997</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6511595821400967</v>
+        <v>0.5046272579644797</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2481617854499422</v>
+        <v>0.4304843041025677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8498111746957513</v>
+        <v>0.8862644658988941</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9647147743635598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6158845033327298</v>
+        <v>0.4506209732569184</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4860159163130413</v>
+        <v>0.3220811261336202</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5819320158540162</v>
+        <v>0.9188561297474036</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.878896552082704</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8112522023724603</v>
+        <v>0.8716833685607682</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8859098278555816</v>
+        <v>0.6750582962482081</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4911684441091116</v>
+        <v>0.6661587929403029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.871560768551956</v>
+        <v>0.3801335224260193</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8498111746957513</v>
+        <v>0.8862644658988941</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5819320158540162</v>
+        <v>0.9188561297474036</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5129,19 +5129,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5155,19 +5155,19 @@
         <v>0.9632363915993691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4488179478535682</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="F2" t="n">
+        <v>0.2382965135528327</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8737306524408875</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.9647147743635598</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8464003326674895</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6854042142631881</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5181,149 +5181,149 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3917462533959553</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="F3" t="n">
+        <v>0.1663181554402454</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9188405370792183</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8659503811327621</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.892628352092997</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5611891528086587</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4488179478535682</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3917462533959553</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999984</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6750582962482081</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4506209732569184</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.518010227210831</v>
+        <v>0.8984362813051766</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6021682640940086</v>
+        <v>0.9497979102505977</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6750582962482081</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9188561297474037</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8742892368761832</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8034061146367363</v>
+        <v>0.3874617546197744</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4506209732569184</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9188561297474037</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.3220811261336202</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892628352092997</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="D7" t="n">
-        <v>0.518010227210831</v>
+        <v>0.8984362813051766</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8742892368761832</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5558926012537586</v>
+        <v>0.7746182614176115</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9647147743635598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6021682640940086</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8034061146367363</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.3220811261336202</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5558926012537586</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
   </sheetData>
